--- a/input.xlsx
+++ b/input.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\keksk\OneDrive\Рабочий стол\excelToDb\xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\keksk\OneDrive\Рабочий стол\excelToDb\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,6 +21,20 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+  <si>
+    <t>sdf</t>
+  </si>
+  <si>
+    <t>sadf</t>
+  </si>
+  <si>
+    <t>adf</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -337,10 +351,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -349,24 +363,113 @@
       <c r="A1">
         <v>1</v>
       </c>
-      <c r="B1">
-        <v>2</v>
+      <c r="B1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>23</v>
-      </c>
-      <c r="B2">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B9">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>4</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>21</v>
+      </c>
+      <c r="B11">
         <v>34</v>
       </c>
-      <c r="B3">
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>2</v>
+      </c>
+      <c r="B12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>2</v>
+      </c>
+      <c r="B13">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B15">
         <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B16">
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/input.xlsx
+++ b/input.xlsx
@@ -21,20 +21,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
-  <si>
-    <t>sdf</t>
-  </si>
-  <si>
-    <t>sadf</t>
-  </si>
-  <si>
-    <t>adf</t>
-  </si>
-</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -351,128 +337,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1">
-        <v>1</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>1</v>
-      </c>
-      <c r="B5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>2</v>
-      </c>
-      <c r="B6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>1</v>
-      </c>
-      <c r="B7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B9">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>4</v>
-      </c>
-      <c r="B10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>21</v>
-      </c>
-      <c r="B11">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>2</v>
-      </c>
-      <c r="B12">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>2</v>
-      </c>
-      <c r="B13">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>12</v>
-      </c>
-      <c r="B14">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B16">
-        <v>34</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/input.xlsx
+++ b/input.xlsx
@@ -339,8 +339,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
